--- a/01_data-input/wiiw/pop_lifexp.xlsx
+++ b/01_data-input/wiiw/pop_lifexp.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1787E6F-06E1-44A2-9834-3A81EC771B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -134,55 +140,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,43 +185,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,59 +512,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.96" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.24" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.163435" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="24.996512" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="26" customWidth="true" style="0"/>
-    <col min="6" max="6" width="43.660575" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7" customWidth="true" style="0"/>
-    <col min="8" max="8" width="7" customWidth="true" style="0"/>
-    <col min="9" max="9" width="7" customWidth="true" style="0"/>
-    <col min="10" max="10" width="7" customWidth="true" style="0"/>
-    <col min="11" max="11" width="7" customWidth="true" style="0"/>
-    <col min="12" max="12" width="7" customWidth="true" style="0"/>
-    <col min="13" max="13" width="7" customWidth="true" style="0"/>
-    <col min="14" max="14" width="7" customWidth="true" style="0"/>
-    <col min="15" max="15" width="7" customWidth="true" style="0"/>
-    <col min="16" max="16" width="7" customWidth="true" style="0"/>
-    <col min="17" max="17" width="7" customWidth="true" style="0"/>
-    <col min="18" max="18" width="7" customWidth="true" style="0"/>
-    <col min="19" max="19" width="7" customWidth="true" style="0"/>
-    <col min="20" max="20" width="7" customWidth="true" style="0"/>
-    <col min="21" max="21" width="7" customWidth="true" style="0"/>
-    <col min="22" max="22" width="7" customWidth="true" style="0"/>
-    <col min="23" max="23" width="7" customWidth="true" style="0"/>
-    <col min="24" max="24" width="7" customWidth="true" style="0"/>
-    <col min="25" max="25" width="7" customWidth="true" style="0"/>
-    <col min="26" max="26" width="7" customWidth="true" style="0"/>
-    <col min="27" max="27" width="7" customWidth="true" style="0"/>
-    <col min="28" max="28" width="7" customWidth="true" style="0"/>
-    <col min="29" max="29" width="7" customWidth="true" style="0"/>
-    <col min="30" max="30" width="7" customWidth="true" style="0"/>
-    <col min="31" max="31" width="7" customWidth="true" style="0"/>
-    <col min="32" max="32" width="7" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="32" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -576,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -584,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -592,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -687,7 +655,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -707,25 +675,25 @@
         <v>18</v>
       </c>
       <c r="G7" s="3">
-        <v>3050.012</v>
+        <v>3050.0120000000002</v>
       </c>
       <c r="H7" s="3">
-        <v>3075.545</v>
+        <v>3075.5450000000001</v>
       </c>
       <c r="I7" s="3">
-        <v>3074.832</v>
+        <v>3074.8319999999999</v>
       </c>
       <c r="J7" s="3">
-        <v>3055.331</v>
+        <v>3055.3310000000001</v>
       </c>
       <c r="K7" s="3">
-        <v>3053.831</v>
+        <v>3053.8310000000001</v>
       </c>
       <c r="L7" s="3">
-        <v>3060.908</v>
+        <v>3060.9079999999999</v>
       </c>
       <c r="M7" s="3">
-        <v>3060.173</v>
+        <v>3060.1729999999998</v>
       </c>
       <c r="N7" s="3">
         <v>3051.01</v>
@@ -734,55 +702,55 @@
         <v>3039.616</v>
       </c>
       <c r="P7" s="3">
-        <v>3026.939</v>
+        <v>3026.9389999999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>3011.487</v>
+        <v>3011.4870000000001</v>
       </c>
       <c r="R7" s="3">
         <v>2992.547</v>
       </c>
       <c r="S7" s="3">
-        <v>2970.017</v>
+        <v>2970.0169999999998</v>
       </c>
       <c r="T7" s="3">
-        <v>2947.314</v>
+        <v>2947.3139999999999</v>
       </c>
       <c r="U7" s="3">
-        <v>2927.519</v>
+        <v>2927.5189999999998</v>
       </c>
       <c r="V7" s="3">
-        <v>2913.021</v>
+        <v>2913.0210000000002</v>
       </c>
       <c r="W7" s="3">
-        <v>2905.195</v>
+        <v>2905.1950000000002</v>
       </c>
       <c r="X7" s="3">
-        <v>2900.401</v>
+        <v>2900.4009999999998</v>
       </c>
       <c r="Y7" s="3">
-        <v>2895.092</v>
+        <v>2895.0920000000001</v>
       </c>
       <c r="Z7" s="3">
-        <v>2889.104</v>
+        <v>2889.1039999999998</v>
       </c>
       <c r="AA7" s="3">
         <v>2880.703</v>
       </c>
       <c r="AB7" s="3">
-        <v>2876.101</v>
+        <v>2876.1010000000001</v>
       </c>
       <c r="AC7" s="3">
-        <v>2873.457</v>
+        <v>2873.4569999999999</v>
       </c>
       <c r="AD7" s="3">
-        <v>2866.376</v>
+        <v>2866.3760000000002</v>
       </c>
       <c r="AE7" s="3">
-        <v>2854.191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+        <v>2854.1909999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -817,25 +785,25 @@
         <v>71.7</v>
       </c>
       <c r="L8" s="3">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="M8" s="3">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="N8" s="3">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="O8" s="3">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="P8" s="3">
-        <v>71.56999999999999</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="Q8" s="3">
         <v>72.05</v>
       </c>
       <c r="R8" s="3">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="S8" s="3">
         <v>72.7</v>
@@ -844,7 +812,7 @@
         <v>73.2</v>
       </c>
       <c r="U8" s="3">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="V8" s="3">
         <v>74.7</v>
@@ -862,22 +830,22 @@
         <v>76.2</v>
       </c>
       <c r="AA8" s="3">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="AB8" s="3">
         <v>77</v>
       </c>
       <c r="AC8" s="3">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="AD8" s="3">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="AE8" s="3">
-        <v>77.59999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -909,19 +877,19 @@
         <v>22</v>
       </c>
       <c r="K9" s="3">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="L9" s="3">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="M9" s="3">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="N9" s="3">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="O9" s="3">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="P9" s="3">
         <v>77.16</v>
@@ -936,13 +904,13 @@
         <v>78</v>
       </c>
       <c r="T9" s="3">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="U9" s="3">
         <v>78.8</v>
       </c>
       <c r="V9" s="3">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="W9" s="3">
         <v>79.8</v>
@@ -951,16 +919,16 @@
         <v>79.7</v>
       </c>
       <c r="Y9" s="3">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="Z9" s="3">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AA9" s="3">
         <v>79.7</v>
       </c>
       <c r="AB9" s="3">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AC9" s="3">
         <v>80</v>
@@ -969,10 +937,10 @@
         <v>80.5</v>
       </c>
       <c r="AE9" s="3">
-        <v>80.59999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1025,28 +993,28 @@
         <v>3843</v>
       </c>
       <c r="R10" s="3">
-        <v>3842.762</v>
+        <v>3842.7620000000002</v>
       </c>
       <c r="S10" s="3">
         <v>3842.942</v>
       </c>
       <c r="T10" s="3">
-        <v>3842.265</v>
+        <v>3842.2649999999999</v>
       </c>
       <c r="U10" s="3">
         <v>3843</v>
       </c>
       <c r="V10" s="3">
-        <v>3843.126</v>
+        <v>3843.1260000000002</v>
       </c>
       <c r="W10" s="3">
-        <v>3839.737</v>
+        <v>3839.7370000000001</v>
       </c>
       <c r="X10" s="3">
         <v>3836.377</v>
       </c>
       <c r="Y10" s="3">
-        <v>3531.159</v>
+        <v>3531.1590000000001</v>
       </c>
       <c r="Z10" s="3">
         <v>3526</v>
@@ -1067,7 +1035,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1073,7 @@
         <v>64.2</v>
       </c>
       <c r="M11" s="3">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="N11" s="3">
         <v>65</v>
@@ -1123,19 +1091,19 @@
         <v>66.8</v>
       </c>
       <c r="S11" s="3">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="T11" s="3">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="U11" s="3">
-        <v>68.09999999999999</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="V11" s="3">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="W11" s="3">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="X11" s="3">
         <v>69.8</v>
@@ -1144,7 +1112,7 @@
         <v>70</v>
       </c>
       <c r="Z11" s="3">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AA11" s="3">
         <v>70.7</v>
@@ -1156,13 +1124,13 @@
         <v>71.2</v>
       </c>
       <c r="AD11" s="3">
-        <v>71.40000000000001</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="AE11" s="3">
         <v>71.5</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1192,7 @@
         <v>73.3</v>
       </c>
       <c r="U12" s="3">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="V12" s="3">
         <v>74.5</v>
@@ -1242,7 +1210,7 @@
         <v>75.8</v>
       </c>
       <c r="AA12" s="3">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="AB12" s="3">
         <v>76.2</v>
@@ -1254,10 +1222,10 @@
         <v>76.8</v>
       </c>
       <c r="AE12" s="3">
-        <v>76.90000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1272,7 @@
         <v>1591</v>
       </c>
       <c r="P13" s="3">
-        <v>1592.024</v>
+        <v>1592.0239999999999</v>
       </c>
       <c r="Q13" s="3">
         <v>1622.239</v>
@@ -1319,7 +1287,7 @@
         <v>1719.575</v>
       </c>
       <c r="U13" s="3">
-        <v>1747.359</v>
+        <v>1747.3589999999999</v>
       </c>
       <c r="V13" s="3">
         <v>1775</v>
@@ -1331,13 +1299,13 @@
         <v>1807.126</v>
       </c>
       <c r="Y13" s="3">
-        <v>1818.119</v>
+        <v>1818.1189999999999</v>
       </c>
       <c r="Z13" s="3">
         <v>1812.788</v>
       </c>
       <c r="AA13" s="3">
-        <v>1788.274</v>
+        <v>1788.2739999999999</v>
       </c>
       <c r="AB13" s="3">
         <v>1777.568</v>
@@ -1349,10 +1317,10 @@
         <v>1797.086</v>
       </c>
       <c r="AE13" s="3">
-        <v>1788.891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+        <v>1788.8910000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1372,82 +1340,82 @@
         <v>35</v>
       </c>
       <c r="G14" s="3">
-        <v>4338.779</v>
+        <v>4338.7790000000005</v>
       </c>
       <c r="H14" s="3">
-        <v>4324.696</v>
+        <v>4324.6959999999999</v>
       </c>
       <c r="I14" s="3">
-        <v>3654.208</v>
+        <v>3654.2080000000001</v>
       </c>
       <c r="J14" s="3">
         <v>3652.732</v>
       </c>
       <c r="K14" s="3">
-        <v>3647.001</v>
+        <v>3647.0010000000002</v>
       </c>
       <c r="L14" s="3">
-        <v>3639.592</v>
+        <v>3639.5920000000001</v>
       </c>
       <c r="M14" s="3">
         <v>3631.462</v>
       </c>
       <c r="N14" s="3">
-        <v>3623.062</v>
+        <v>3623.0619999999999</v>
       </c>
       <c r="O14" s="3">
-        <v>3612.874</v>
+        <v>3612.8739999999998</v>
       </c>
       <c r="P14" s="3">
-        <v>3603.945</v>
+        <v>3603.9450000000002</v>
       </c>
       <c r="Q14" s="3">
-        <v>3595.187</v>
+        <v>3595.1869999999999</v>
       </c>
       <c r="R14" s="3">
-        <v>3585.209</v>
+        <v>3585.2089999999998</v>
       </c>
       <c r="S14" s="3">
         <v>3576.91</v>
       </c>
       <c r="T14" s="3">
-        <v>3570.108</v>
+        <v>3570.1080000000002</v>
       </c>
       <c r="U14" s="3">
-        <v>3565.604</v>
+        <v>3565.6039999999998</v>
       </c>
       <c r="V14" s="3">
-        <v>3562.045</v>
+        <v>3562.0450000000001</v>
       </c>
       <c r="W14" s="3">
-        <v>3559.986</v>
+        <v>3559.9859999999999</v>
       </c>
       <c r="X14" s="3">
-        <v>3559.519</v>
+        <v>3559.5189999999998</v>
       </c>
       <c r="Y14" s="3">
-        <v>3558.566</v>
+        <v>3558.5659999999998</v>
       </c>
       <c r="Z14" s="3">
-        <v>3556.397</v>
+        <v>3556.3969999999999</v>
       </c>
       <c r="AA14" s="3">
-        <v>2835.978</v>
+        <v>2835.9780000000001</v>
       </c>
       <c r="AB14" s="3">
-        <v>2803.186</v>
+        <v>2803.1860000000001</v>
       </c>
       <c r="AC14" s="3">
-        <v>2755.189</v>
+        <v>2755.1889999999999</v>
       </c>
       <c r="AD14" s="3">
         <v>2707.203</v>
       </c>
       <c r="AE14" s="3">
-        <v>2664.224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+        <v>2664.2240000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1488,7 +1456,7 @@
         <v>64.5</v>
       </c>
       <c r="N15" s="3">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="O15" s="3">
         <v>64.47</v>
@@ -1500,10 +1468,10 @@
         <v>63.84</v>
       </c>
       <c r="R15" s="3">
-        <v>64.56999999999999</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="S15" s="3">
-        <v>65.04000000000001</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="T15" s="3">
         <v>65.55</v>
@@ -1515,10 +1483,10 @@
         <v>65</v>
       </c>
       <c r="W15" s="3">
-        <v>66.81999999999999</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="X15" s="3">
-        <v>67.23999999999999</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="Y15" s="3">
         <v>68.05</v>
@@ -1542,7 +1510,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1542,7 @@
         <v>71.39</v>
       </c>
       <c r="K16" s="3">
-        <v>71.04000000000001</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="L16" s="3">
         <v>71.22</v>
@@ -1583,7 +1551,7 @@
         <v>71.75</v>
       </c>
       <c r="N16" s="3">
-        <v>71.70999999999999</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="O16" s="3">
         <v>71.64</v>
@@ -1613,13 +1581,13 @@
         <v>74.92</v>
       </c>
       <c r="X16" s="3">
-        <v>74.98999999999999</v>
+        <v>74.989999999999995</v>
       </c>
       <c r="Y16" s="3">
         <v>75.55</v>
       </c>
       <c r="Z16" s="3">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AA16" s="3">
         <v>73.7</v>
@@ -1628,7 +1596,7 @@
         <v>74.2</v>
       </c>
       <c r="AC16" s="3">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="AD16" s="3">
         <v>75</v>
@@ -1637,7 +1605,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1645,26 +1613,854 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD724A-3DB3-4E5B-A76D-43010B908100}">
+  <dimension ref="A1:X11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3060.9079999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3060.1729999999998</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3051.01</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3039.616</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3026.9389999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3011.4870000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2992.547</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2970.0169999999998</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2947.3139999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2927.5189999999998</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2913.0210000000002</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2905.1950000000002</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2900.4009999999998</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2895.0920000000001</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2889.1039999999998</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2880.703</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2876.1010000000001</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2873.4569999999999</v>
+      </c>
+      <c r="W2" s="3">
+        <v>2866.3760000000002</v>
+      </c>
+      <c r="X2" s="3">
+        <v>2854.1909999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F3" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G3" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="H3" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I3" s="3">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="J3" s="3">
+        <v>72.05</v>
+      </c>
+      <c r="K3" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="L3" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="M3" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="O3" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="P3" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="R3" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="S3" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U3" s="3">
+        <v>77</v>
+      </c>
+      <c r="V3" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W3" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="X3" s="3">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="F4" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G4" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H4" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="I4" s="3">
+        <v>77.16</v>
+      </c>
+      <c r="J4" s="3">
+        <v>77.28</v>
+      </c>
+      <c r="K4" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="N4" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="O4" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="P4" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="R4" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="S4" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="T4" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="U4" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="V4" s="3">
+        <v>80</v>
+      </c>
+      <c r="W4" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="X4" s="3">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3781</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3798</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3828</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3832</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3842</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3843</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3842.7620000000002</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3842.942</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3842.2649999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3843</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3843.1260000000002</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3839.7370000000001</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3836.377</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3531.1590000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3526</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3518</v>
+      </c>
+      <c r="U5" s="3">
+        <v>3511</v>
+      </c>
+      <c r="V5" s="3">
+        <v>3504</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3496</v>
+      </c>
+      <c r="X5" s="3">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>64.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G6" s="3">
+        <v>65</v>
+      </c>
+      <c r="H6" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="I6" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="M6" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="N6" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="O6" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="P6" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="R6" s="3">
+        <v>70</v>
+      </c>
+      <c r="S6" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T6" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="U6" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="V6" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="X6" s="3">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="H7" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="J7" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O7" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="S7" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="T7" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U7" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="W7" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="X7" s="3">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1588</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1589</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1590</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1591</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1592.0239999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1622.239</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1651.011</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1678.355</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1719.575</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1747.3589999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1775</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1796.413</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1807.126</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1818.1189999999999</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1812.788</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1788.2739999999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1777.568</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1791.019</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1797.086</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1788.8910000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3639.5920000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3631.462</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3623.0619999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3612.8739999999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3603.9450000000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3595.1869999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3585.2089999999998</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3576.91</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3570.1080000000002</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3565.6039999999998</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3562.0450000000001</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3559.9859999999999</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3559.5189999999998</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3558.5659999999998</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3556.3969999999999</v>
+      </c>
+      <c r="T9" s="3">
+        <v>2835.9780000000001</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2803.1860000000001</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2755.1889999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2707.203</v>
+      </c>
+      <c r="X9" s="3">
+        <v>2664.2240000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>63.87</v>
+      </c>
+      <c r="F10" s="3">
+        <v>64.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H10" s="3">
+        <v>64.47</v>
+      </c>
+      <c r="I10" s="3">
+        <v>64.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>63.84</v>
+      </c>
+      <c r="K10" s="3">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="L10" s="3">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="M10" s="3">
+        <v>65.55</v>
+      </c>
+      <c r="N10" s="3">
+        <v>65.31</v>
+      </c>
+      <c r="O10" s="3">
+        <v>65</v>
+      </c>
+      <c r="P10" s="3">
+        <v>66.819999999999993</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="R10" s="3">
+        <v>68.05</v>
+      </c>
+      <c r="S10" s="3">
+        <v>67.5</v>
+      </c>
+      <c r="T10" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="U10" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="V10" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="W10" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="X10" s="3">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>71.22</v>
+      </c>
+      <c r="F11" s="3">
+        <v>71.75</v>
+      </c>
+      <c r="G11" s="3">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="H11" s="3">
+        <v>71.64</v>
+      </c>
+      <c r="I11" s="3">
+        <v>72.16</v>
+      </c>
+      <c r="J11" s="3">
+        <v>71.66</v>
+      </c>
+      <c r="K11" s="3">
+        <v>72.23</v>
+      </c>
+      <c r="L11" s="3">
+        <v>72.56</v>
+      </c>
+      <c r="M11" s="3">
+        <v>73.17</v>
+      </c>
+      <c r="N11" s="3">
+        <v>73.37</v>
+      </c>
+      <c r="O11" s="3">
+        <v>73.41</v>
+      </c>
+      <c r="P11" s="3">
+        <v>74.92</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="R11" s="3">
+        <v>75.55</v>
+      </c>
+      <c r="S11" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="T11" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="U11" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="V11" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="W11" s="3">
+        <v>75</v>
+      </c>
+      <c r="X11" s="3">
+        <v>75.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>